--- a/data/viviate.xlsx
+++ b/data/viviate.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,30 +457,35 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>04dec2025</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>25nov2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>26nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -502,10 +507,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2" t="n">
         <v>14</v>
-      </c>
-      <c r="F2" t="n">
-        <v>21</v>
       </c>
       <c r="G2" t="n">
         <v>21</v>
@@ -514,11 +519,14 @@
         <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="n">
         <v>20</v>
       </c>
+      <c r="K2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,21 +544,24 @@
         <v>22</v>
       </c>
       <c r="E3" t="n">
+        <v>37</v>
+      </c>
+      <c r="F3" t="n">
         <v>13</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>22</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>24</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>28</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>18</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>16</v>
       </c>
     </row>
@@ -570,21 +581,24 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
+        <v>35</v>
+      </c>
+      <c r="F4" t="n">
         <v>12</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>22</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>23</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>26</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>18</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>15</v>
       </c>
     </row>
@@ -604,21 +618,24 @@
         <v>14</v>
       </c>
       <c r="E5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>17</v>
       </c>
       <c r="G5" t="n">
         <v>17</v>
       </c>
       <c r="H5" t="n">
+        <v>17</v>
+      </c>
+      <c r="I5" t="n">
         <v>12</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>10</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>14</v>
       </c>
     </row>
@@ -638,21 +655,24 @@
         <v>21</v>
       </c>
       <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>16</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14</v>
       </c>
       <c r="H6" t="n">
         <v>14</v>
       </c>
       <c r="I6" t="n">
+        <v>14</v>
+      </c>
+      <c r="J6" t="n">
         <v>11</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -672,21 +692,24 @@
         <v>22</v>
       </c>
       <c r="E7" t="n">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>15</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>12</v>
-      </c>
-      <c r="H7" t="n">
-        <v>13</v>
       </c>
       <c r="I7" t="n">
         <v>13</v>
       </c>
       <c r="J7" t="n">
+        <v>13</v>
+      </c>
+      <c r="K7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,23 +729,26 @@
         <v>11</v>
       </c>
       <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="n">
         <v>10</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>20</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>13</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>14</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
       </c>
       <c r="J8" t="n">
         <v>10</v>
       </c>
+      <c r="K8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -740,21 +766,24 @@
         <v>18</v>
       </c>
       <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>15</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>11</v>
-      </c>
-      <c r="H9" t="n">
-        <v>16</v>
       </c>
       <c r="I9" t="n">
         <v>16</v>
       </c>
       <c r="J9" t="n">
+        <v>16</v>
+      </c>
+      <c r="K9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -774,21 +803,24 @@
         <v>25</v>
       </c>
       <c r="E10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F10" t="n">
         <v>16</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>18</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>30</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>40</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>42</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>35</v>
       </c>
     </row>
@@ -808,21 +840,24 @@
         <v>17</v>
       </c>
       <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n">
         <v>4</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>15</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>11</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>17</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>16</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -842,21 +877,24 @@
         <v>20</v>
       </c>
       <c r="E12" t="n">
+        <v>17</v>
+      </c>
+      <c r="F12" t="n">
         <v>19</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>16</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>15</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>17</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>7</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>20</v>
       </c>
     </row>
@@ -876,21 +914,24 @@
         <v>22</v>
       </c>
       <c r="E13" t="n">
+        <v>36</v>
+      </c>
+      <c r="F13" t="n">
         <v>13</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>23</v>
-      </c>
-      <c r="G13" t="n">
-        <v>25</v>
       </c>
       <c r="H13" t="n">
         <v>25</v>
       </c>
       <c r="I13" t="n">
+        <v>25</v>
+      </c>
+      <c r="J13" t="n">
         <v>18</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>15</v>
       </c>
     </row>
@@ -905,7 +946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,30 +977,35 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>04dec2025</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>25nov2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>26nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -984,30 +1030,35 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1036,30 +1087,35 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1088,30 +1144,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -1138,28 +1199,33 @@
           <t>14</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
@@ -1186,28 +1252,33 @@
           <t>21</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1234,28 +1305,33 @@
           <t>22</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1280,30 +1356,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -1330,28 +1411,33 @@
           <t>18</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -1380,30 +1466,35 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>35</t>
         </is>
@@ -1432,30 +1523,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -1484,30 +1580,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1536,30 +1637,35 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
